--- a/output_region_cycle2014_summary_Latin_America_and_the_Caribbean.xlsx
+++ b/output_region_cycle2014_summary_Latin_America_and_the_Caribbean.xlsx
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -915,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
